--- a/Röstkoder.xlsx
+++ b/Röstkoder.xlsx
@@ -1,71 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Dokument\voting-vg\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674EB04E-DE3B-4938-9FDF-233954E4D3EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Blad1" sheetId="1" r:id="rId4"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -255,110 +269,85 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>123456.0</v>
+        <v>111111</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>234567.0</v>
+        <v>222222</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>987654.0</v>
+        <v>333333</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>132456.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>987654.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>199604.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>101028.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>1234.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>1421.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>1337.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>3713.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>97531.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>5222.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>242424.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>432106.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>543210.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>654321.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>113355.0</v>
-      </c>
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Röstkoder.xlsx
+++ b/Röstkoder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Dokument\voting-vg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674EB04E-DE3B-4938-9FDF-233954E4D3EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF406E60-FA30-40C2-A5AC-7F1CD03FCC87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -282,69 +282,71 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>111111</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>222222</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>333333</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>444444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
   </sheetData>

--- a/Röstkoder.xlsx
+++ b/Röstkoder.xlsx
@@ -119,7 +119,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -142,11 +142,7 @@
         <v>333333</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>444444</v>
-      </c>
-    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Röstkoder.xlsx
+++ b/Röstkoder.xlsx
@@ -119,7 +119,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -142,7 +142,11 @@
         <v>333333</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>444444</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
